--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -893,13 +893,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256751760"/>
-        <c:axId val="256755288"/>
+        <c:axId val="260731352"/>
+        <c:axId val="260727824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256751760"/>
+        <c:axId val="260731352"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
         </c:scaling>
@@ -1021,13 +1021,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256755288"/>
+        <c:crossAx val="260727824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256755288"/>
+        <c:axId val="260727824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1139,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256751760"/>
+        <c:crossAx val="260731352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2134,22 +2133,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>89.901083333333304</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O4">
         <v>72.888333333333307</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O5">
         <v>68.001249999999999</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>98.1741068898462</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O6">
         <v>64.334083333333297</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>96.797261716849803</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>61.263166666666699</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>95.549274991116505</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T8">
         <v>61.435083333333303</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>94.432080858675306</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="T9">
         <v>60.059166666666698</v>
       </c>

--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
@@ -275,78 +275,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ist-Zustand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AE$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>858.70933333333301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$AD$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5802769.2857510503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$A$1</c:f>
@@ -410,7 +340,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$C$1</c:f>
@@ -474,7 +404,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
@@ -538,7 +468,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$G$1</c:f>
@@ -605,7 +535,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$I$1</c:f>
@@ -675,7 +605,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$O$1</c:f>
@@ -775,7 +705,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$T$1</c:f>
@@ -893,14 +823,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260731352"/>
-        <c:axId val="260727824"/>
+        <c:axId val="251864848"/>
+        <c:axId val="251862496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260731352"/>
+        <c:axId val="251864848"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -928,10 +859,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -939,16 +867,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -970,10 +910,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1008,10 +945,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1021,12 +955,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260727824"/>
+        <c:crossAx val="251862496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260727824"/>
+        <c:axId val="251862496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,10 +989,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1066,8 +997,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1088,10 +1023,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1126,10 +1058,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1139,41 +1068,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260731352"/>
+        <c:crossAx val="251864848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -1202,10 +1101,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2133,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
+++ b/doc/thesis/pictures/resultate/loesung2/variante3/resultate_median.xlsx
@@ -823,16 +823,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251864848"/>
-        <c:axId val="251862496"/>
+        <c:axId val="259116976"/>
+        <c:axId val="259117760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251864848"/>
+        <c:axId val="259116976"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="250"/>
-          <c:min val="50"/>
+          <c:max val="256"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -955,12 +955,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251862496"/>
+        <c:crossAx val="259117760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251862496"/>
+        <c:axId val="259117760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251864848"/>
+        <c:crossAx val="259116976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1144,7 +1144,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
